--- a/testing/Core7-NECN6.6/NECN_Functional_Table.xlsx
+++ b/testing/Core7-NECN6.6/NECN_Functional_Table.xlsx
@@ -41,9 +41,6 @@
     <t>FractionANPPtoLeaf</t>
   </si>
   <si>
-    <t>BiomassToLAI</t>
-  </si>
-  <si>
     <t>KLAI</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>FunctionalGroupName</t>
+  </si>
+  <si>
+    <t>LeafBiomassToLAI</t>
   </si>
 </sst>
 </file>
@@ -406,16 +406,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -433,42 +435,42 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -524,7 +526,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -580,7 +582,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>3</v>
